--- a/BalanceSheet/IR_bal.xlsx
+++ b/BalanceSheet/IR_bal.xlsx
@@ -344,19 +344,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-56100000.0</v>
+        <v>833000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>76000000.0</v>
+        <v>944000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>102600000.0</v>
+        <v>1007000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>15800000.0</v>
+        <v>1026000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-23600000.0</v>
+        <v>1088000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>502500000.0</v>
@@ -1079,19 +1079,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>31400000.0</v>
+        <v>674000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>33400000.0</v>
+        <v>671000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-73200000.0</v>
+        <v>625000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-79100000.0</v>
+        <v>684000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>105600000.0</v>
+        <v>765000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>322900000.0</v>
@@ -1167,7 +1167,7 @@
         <v>754800000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>787100000.0</v>
+        <v>769800000.0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>761000000.0</v>
@@ -1929,7 +1929,7 @@
         <v>266300000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>275000000.0</v>
+        <v>274800000.0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>275400000.0</v>
@@ -2011,19 +2011,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-4800000.0</v>
+        <v>855000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-104400000.0</v>
+        <v>860000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-25100000.0</v>
+        <v>896000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>26200000.0</v>
+        <v>900000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-1100000.0</v>
+        <v>1076000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>251000000.0</v>
@@ -3289,7 +3289,7 @@
         <v>-1628300000.0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>-1846700000.0</v>
+        <v>-1446300000.0</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>-2159699000.0</v>
@@ -3384,7 +3384,7 @@
         <v>2954000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1164000000.0</v>
+        <v>1105900000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1195100000.0</v>
@@ -3467,7 +3467,7 @@
         <v>3510000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1670000000.0</v>
+        <v>1611400000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1601500000.0</v>
